--- a/tests/Diesel_Cost.xlsx
+++ b/tests/Diesel_Cost.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{943BCC4E-1E04-4F13-ABEA-709F485AD007}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A483E0B-3D2A-4A6F-9067-B8846C049C7E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="17640" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Description" sheetId="3" r:id="rId1"/>
@@ -2386,8 +2386,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29:K29"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -2663,7 +2663,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A26" s="57" t="s">
         <v>106</v>
       </c>
@@ -3267,7 +3267,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:M50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
